--- a/commerce_estate/NF_Moscow/data/Sales.xlsx
+++ b/commerce_estate/NF_Moscow/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,483 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-zapad-os23426</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Офис 190 м², 49 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G2" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>67857170 RUB</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-zapad-os31919</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Офисное помещение 221 м², 49 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>87500088 RUB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-v-os42940</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Продажа офиса 208 м², 5 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>87820600 RUB</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-v-os42941</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 342 м², 23 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>610746500 RUB</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-bashnya-v-os43885</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 342 м², 22 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>597590500 RUB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-os47387</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Продаётся офис 276 м², 4 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>112648800 RUB</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-os47388</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Продаётся офис 208 м², 5 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>87820600 RUB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-os47389</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Продаётся офис 142 м², 5 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G9" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>59481400 RUB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/stone-towers-os47390</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Продаётся офис 142 м², 5 этаж - Stone towers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Беговой, проезд Бумажный, д. 19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>37.585907</v>
+      </c>
+      <c r="G10" t="n">
+        <v>55.789864</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>59523200 RUB</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/commerce_estate/NF_Moscow/data/Sales.xlsx
+++ b/commerce_estate/NF_Moscow/data/Sales.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,483 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/volzhskij-os36879</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Продаётся офис 4 863 м², -1-2 этаж - Волжский</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ЧТК Восток, Кузьминки, 113а Волжский Бульвар кв-л, к. 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>37.662678</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55.752262</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>730000000 RUB</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38839</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Офисное помещение 213 м², 51 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>137999937 RUB</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/kristall-plaza-os27052</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Продажа офиса 7 877 м², -2-7 этаж - Кристалл Плаза</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>СК Юг (Замоскворечье), Замоскворечье, Садовническая улица, 14, стр. 2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>37.62879</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55.746961</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3229857000 RUB</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/afimoll-siti-os11330</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 508 м², 5 этаж - Новотель Москва Сити</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Пресненский, Пресненская набережная, 2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>37.539347</v>
+      </c>
+      <c r="G14" t="n">
+        <v>55.74906</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>13797300 USD</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/afimoll-siti-os11332</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 488 м², 7 этаж - Новотель Москва Сити</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Пресненский, Пресненская набережная, 2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>37.539347</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55.74906</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>13684000 USD</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os32279</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Офис 1 735 м², 55 этаж - Империя Тауэр</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>37.540397</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55.748071</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>867500000 RUB</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os32343</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Офис 940 м², 58 этаж - Империя Тауэр</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>37.540397</v>
+      </c>
+      <c r="G17" t="n">
+        <v>55.748071</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>495000240 RUB</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os32456</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Продажа офиса 193 м², 43 этаж - Империя Тауэр</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>37.540397</v>
+      </c>
+      <c r="G18" t="n">
+        <v>55.748071</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>148307376 RUB</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/imperiya-tauer-os8745</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Офисное помещение 105 м², 53 этаж - Империя Тауэр</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Сити (ТТК Запад), Москва-Сити, Пресненская набережная, 6, стр. 2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>37.540397</v>
+      </c>
+      <c r="G19" t="n">
+        <v>55.748071</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>76217715 RUB</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/commerce_estate/NF_Moscow/data/Sales.xlsx
+++ b/commerce_estate/NF_Moscow/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,6 +1444,907 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35317</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Офисное помещение 143 м², 12 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G20" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>34368200 RUB</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35319</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Офисное помещение 126 м², 12 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>30817200 RUB</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35320</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Продаётся офис 101 м², 3 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>21513000 RUB</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35321</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Продажа офиса 131 м², 3 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G23" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>25662000 RUB</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35323</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Офисное помещение 131 м², 4 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G24" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>25925200 RUB</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35324</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Продаётся офис 242 м², 7 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>47772500 RUB</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35474</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Офис 101 м², 4 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G26" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20604000 RUB</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35481</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Офис 102 м², 12 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>25010000 RUB</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35482</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Продажа офиса 244 м², 9 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G28" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>50020000 RUB</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35483</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Продажа офиса 132 м², 9 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G29" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>28995600 RUB</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35535</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Продажа офиса 135 м², 3 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G30" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29970000 RUB</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35537</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Продаётся офис 131 м², 7 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G31" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>27899200 RUB</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os35538</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Офисное помещение 241 м², 3 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>49949100 RUB</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os38227</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Продаётся офис 98 м², 12 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G33" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>24601200 RUB</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os38228</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Офисное помещение 926 м², 15 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G34" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/dm-tower-os38230</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 085 м², 17 этаж - DM Tower</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Тульский (ТТК Юг), Донской, Новоданиловская наб, д. 10А</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>37.625712</v>
+      </c>
+      <c r="G35" t="n">
+        <v>55.695313</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>525262372 RUB</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>21/11/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/svyatogor-2-os46442</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Продажа офиса 11 500 м², 1-9 этаж - Святогор 2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>СК Юг (Замоскворечье), Замоскворечье, Летниковская улица, 10, стр. 2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>37.643249</v>
+      </c>
+      <c r="G36" t="n">
+        <v>55.72563</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2875000000 RUB</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/commerce_estate/NF_Moscow/data/Sales.xlsx
+++ b/commerce_estate/NF_Moscow/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,6 +2345,2126 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os12762</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Офисное помещение 785 м², 46 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G37" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>431750000 RUB</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/volkhonka-ulitsa-6-str-2-os21584</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Продажа офиса 6 364 м², -3-5 этаж - Волхонка улица, 6 стр. 2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Центральный деловой район, Хамовники, Волхонка улица, 6, стр. 2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>37.607967</v>
+      </c>
+      <c r="G38" t="n">
+        <v>55.748643</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os26436</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Офис 2 475 м², 28 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G39" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1399999221 RUB</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os29219</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Офис 635 м², 2 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G40" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>57186000 RUB</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os29220</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Офис 1 263 м², 3 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G41" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>113675400 RUB</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os29221</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 391 м², 4 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G42" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>125235000 RUB</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os29223</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Офис 540 м², 5 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G43" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>48645000 RUB</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os30005</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Офисное помещение 422 м², 1-3 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G44" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>54860000 RUB</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os30278</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 126 м², 44 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G45" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>619300000 RUB</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os32428</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Продаётся офис 515 м², 46 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>298815875 RUB</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os33423</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 036 м², 46 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G47" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>600880000 RUB</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federatsiya-bashnya-vostok-os37826</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 181 м², 95 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2600000634 RUB</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38127</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Продажа офиса 561 м², 35 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>375870000 RUB</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-vostok-os38280</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Офис 2 456 м², 19 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G50" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1800000000 RUB</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/bolshaya-polyanka-ulitsa-d-2-str-2-os38281</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Офисное помещение 1 884 м², 1-4 этаж - Большая Полянка 2 стр. 2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>СК Юг (Замоскворечье), Якиманка, Полянка Б улица, 2, стр. 2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>37.615867</v>
+      </c>
+      <c r="G51" t="n">
+        <v>55.741586</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>650000000 RUB</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federatsiya-os38479</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 380 м², 46 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G52" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1380400000 RUB</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43158</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Продажа офиса 399 м², 2 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G53" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>123198731 RUB</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43159</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Продажа офиса 239 м², 2 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G54" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>77310773 RUB</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43160</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Продажа офиса 712 м², 2 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G55" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>211656693 RUB</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43161</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 093 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>342897145 RUB</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43162</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Продажа офиса 203 м², 3 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>65837928 RUB</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43163</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Продажа офиса 279 м², 3 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G58" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>90152880 RUB</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43165</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Продажа офиса 711 м², 3 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G59" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>211300369 RUB</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/hill8-na-prospekte-mira-os43166</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Продажа офиса 861 м², 1-3 этаж - Hill8 на Проспекте Мира</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Останкинский, Мира пр-кт, д. 95, стр 1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>37.635889</v>
+      </c>
+      <c r="G60" t="n">
+        <v>55.808067</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>251591508 RUB</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46324</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Продажа офиса 962 м², 6 этаж - LUCKY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>37.557772</v>
+      </c>
+      <c r="G61" t="n">
+        <v>55.762167</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>625300000 RUB</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/eko-os7587</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Офис 914 м², 6 этаж - ЭКО</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Преображенский (ЧТК Восток), Соколиная Гора, Мироновская улица, 27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>37.731578</v>
+      </c>
+      <c r="G62" t="n">
+        <v>55.78875</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>82260000 RUB</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/kvartal-lucky-stroenie-1-os46320</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Продажа офиса 470 м², 2 этаж - LUCKY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Пресненский, ул. 2-я Звенигородская, д. 12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>37.557772</v>
+      </c>
+      <c r="G63" t="n">
+        <v>55.762167</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>338400000 RUB</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>26_10_2023</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>4/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/icity-os44389</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Продажа офиса 1 846 м², 31 этаж - iCITY (Space)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>37.530354</v>
+      </c>
+      <c r="G64" t="n">
+        <v>55.755302</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1154150000 RUB</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>17/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/icity-os44404</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Продажа офиса 144 м², 12 этаж - iCITY (Space)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>37.530354</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55.755302</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>89489715 RUB</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>17/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/icity-os44450</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Продажа офиса 568 м², 51 этаж - iCITY (Space)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>37.530354</v>
+      </c>
+      <c r="G66" t="n">
+        <v>55.755302</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>373241700 RUB</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>17/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/icity-os44451</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Продажа офиса 332 м², 51 этаж - iCITY (Space)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>37.530354</v>
+      </c>
+      <c r="G67" t="n">
+        <v>55.755302</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>218715300 RUB</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>17/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/icity-os44452</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Продажа офиса 436 м², 51 этаж - iCITY (Space)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Пресненский, Шмитовский проезд, д. 37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>37.530354</v>
+      </c>
+      <c r="G68" t="n">
+        <v>55.755302</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>286583400 RUB</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>17/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-zapad-os31918</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Офисное помещение 199 м², 38 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G69" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>87500000 RUB</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>23/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/federaciya-bashnya-zapad-os31923</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 100 м², 60 этаж - Федерация</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Пресненский, Пресненская наб., 12, Москва</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>37.537106</v>
+      </c>
+      <c r="G70" t="n">
+        <v>55.749938</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>819000000 RUB</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/lica-os36064</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Офис 96 м², 4 этаж - Лица</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ЧТК Северо-Запад, Хорошёвский, Авиаконструктора Сухого улица, 2, корп. 2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>37.542231</v>
+      </c>
+      <c r="G71" t="n">
+        <v>55.786217</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>29040000 RUB</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>26/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/kutuzovskij-os47100</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Продажа офиса 271 м², 1 этаж - AHEAD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ЧТК Запад, Филёвский Парк, Василисы Кожиной ул., д. 25/1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>37.492385</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55.733925</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>26/1/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45813</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Продажа офиса 2 478 м², 1-4 этаж - ОСЗ на Алексея Свиридова</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>37.45495</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55.726864</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>599676000 RUB</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1/2/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/osz-na-alekseya-sviridova-os45814</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Продажа офиса 622 м², 1-2 этаж - ОСЗ на Алексея Свиридова</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Фили-Давыдково, Алексея Свиридова ул., д. 7</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>37.45495</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55.726864</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>150524000 RUB</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1/2/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/magistralnaya-3-ya-ulitsa-os7697</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Продаётся офис 27 271 м², 3-11 этаж - Orbital</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ЧТК Восток, Хорошёвский, ул. 3-я Магистральная, влд 10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>37.518532</v>
+      </c>
+      <c r="G75" t="n">
+        <v>55.765905</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>8181300000 RUB</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>16_10_2023</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1/2/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://kf.expert/office/pomeschenie/light-city-os44123</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Продажа офиса 31 278 м², 1-17 этаж - Light City</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Офисы</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Пресненский, 2-я Магистральная ул., д. 3, стр. 1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>37.531388</v>
+      </c>
+      <c r="G76" t="n">
+        <v>55.762326</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>11260080000 RUB</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4_1_2024</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Купить коммерсию</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1/2/2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
